--- a/Bitacoras/NRC_124_Grupo_43/Parcial_02/Bitacora_Laboratorio_Parcial_02_NRC_126.xlsx
+++ b/Bitacoras/NRC_124_Grupo_43/Parcial_02/Bitacora_Laboratorio_Parcial_02_NRC_126.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_124_Grupo_43\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_124_Grupo_43\Parcial_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94079FAE-D573-4A3D-A961-C24867198054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E1A1E1-FF1E-4C4B-AD8D-3836F9BDF71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4088411F-45C8-4B22-B9E8-3AFCA733CA3C}"/>
   </bookViews>
@@ -572,11 +572,11 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="7620" ySplit="720" topLeftCell="P1" activePane="bottomLeft"/>
+      <pane xSplit="5565" ySplit="720" topLeftCell="P1" activePane="bottomRight"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
